--- a/Features/features.xlsx
+++ b/Features/features.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feature1</t>
+          <t>Feature2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Feature2</t>
+          <t>Feature3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Feature3</t>
+          <t>Feature1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
